--- a/biology/Botanique/Agathis_ovata/Agathis_ovata.xlsx
+++ b/biology/Botanique/Agathis_ovata/Agathis_ovata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agathis ovata, ou kaori de montagne ou encore kaori nain[1],[2], est une espèce de conifère de la famille des Araucariaceae. Il se rencontre uniquement en Nouvelle-Calédonie, où il est la seule des espèces du genre Agathis représentées dans cet archipel à ne pas pousser en milieu forestier dense mais sur le maquis minier entre 100 et 800 m dans le sud de la Grande Terre. On ne trouve aujourd'hui que de petites populations d'individus isolés sur les flancs et sommets de montagnes (dans les zones de Dumbéa, Prony, Yaté...). Il est menacé du fait de la destruction de son habitat.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agathis ovata, ou kaori de montagne ou encore kaori nain est une espèce de conifère de la famille des Araucariaceae. Il se rencontre uniquement en Nouvelle-Calédonie, où il est la seule des espèces du genre Agathis représentées dans cet archipel à ne pas pousser en milieu forestier dense mais sur le maquis minier entre 100 et 800 m dans le sud de la Grande Terre. On ne trouve aujourd'hui que de petites populations d'individus isolés sur les flancs et sommets de montagnes (dans les zones de Dumbéa, Prony, Yaté...). Il est menacé du fait de la destruction de son habitat.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le plus petit des kaori de Nouvelle-Calédonie, il oscille entre 8 m et 25 m, et est ramifié près de la base. Le tronc est net sur environ la moitié de sa hauteur, et la cime est particulièrement étalée, parfois même aplatie. Le fût est de taille moyenne (2 à 10 m), droit et cylindrique. L'écorce est brun-rouge, blanchissant avec l'âge, et également brun-rouge à l'intérieur. Épaisse et rugueuse avec de profondes fissures, elle s'exfolie en blocs rectangulaires grossiers, irréguliers, subéreux ou granuleux et produit une résine blanchâtre. Les branches sont d'une longueur variable et en position oblique orthotrope. Sa ramification est étagée sauf pour les rameaux ultimes. 
 Cette espèce est strictement inféodée aux terrains ultramafiques.
@@ -543,7 +557,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois est inexploitable mais sa résine est utilisée pour fabriquer du vernis ou pour ses propriétés antiseptiques et vulnéraires pour panser les plaies ou les ulcères. 
 La multiplication de cette espèce est maîtrisée : cela permet son utilisation en réhabilitation de terrains miniers (à l'instar de Casuarina collina ou Acacia spirorbis) où malgré sa croissante lente, elle arrive bien à s'implanter.
@@ -580,11 +596,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Agathis ovata (C.Moore ex Vieill.) Warb.[1].
-L'espèce a été initialement classée dans le genre Dammara sous le basionyme Dammara ovata C.Moore ex Vieill.[1].
-Agathis ovata a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Agathis ovata (C.Moore ex Vieill.) Warb..
+L'espèce a été initialement classée dans le genre Dammara sous le basionyme Dammara ovata C.Moore ex Vieill..
+Agathis ovata a pour synonymes :
 Agathis hypoleuca (C.Moore ex Henkel &amp; W.Hochst.) Warb.
 Dammara hypoleuca C.Moore
 Dammara hypoleuca C.Moore ex Henkel &amp; W.Hochst.
